--- a/biology/Histoire de la zoologie et de la botanique/Jean-François_Durande/Jean-François_Durande.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-François_Durande/Jean-François_Durande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Durande</t>
+          <t>Jean-François_Durande</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-François Durande est un médecin et un botaniste français, né en 1732 à Dijon et mort en janvier 1794 dans cette même ville.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Durande</t>
+          <t>Jean-François_Durande</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est procureur au Parlement de Bourgogne. Jean-François Durande étudie la médecine et s’installe à Dijon. 
-Il est admis à l'académie des sciences de Dijon en 1772[1]. Tout en exerçant la médecine, sa passion pour la flore le conduit à devenir professeur de  botanique (1776-1789), enseignement dispensé dans le jardin botanique de la ville après le refus de Jean-Jacques Rousseau (1712-1778) et d’Antoine Gouan (1733-1821). Parmi les élèves de Durande, il faut citer Louis-Augustin Bosc d’Antic (1759-1828), Jacques-Nicolas Vallot (1771-1860) ou Pierre Morland (1768-1837).
+Il est admis à l'académie des sciences de Dijon en 1772. Tout en exerçant la médecine, sa passion pour la flore le conduit à devenir professeur de  botanique (1776-1789), enseignement dispensé dans le jardin botanique de la ville après le refus de Jean-Jacques Rousseau (1712-1778) et d’Antoine Gouan (1733-1821). Parmi les élèves de Durande, il faut citer Louis-Augustin Bosc d’Antic (1759-1828), Jacques-Nicolas Vallot (1771-1860) ou Pierre Morland (1768-1837).
 Avec Hugues Maret (1726-1786) et Louis-Bernard Guyton-Morveau (1737-1816), il fait paraître les Éléments de chymie théorique et pratique (1778). Il rassemble ses leçons dans les Notions élémentaires de botaniques (1781) où il est l’un des premiers à suivre le système d’Antoine-Laurent de Jussieu (1748-1836). L’année suivante, il fait paraître une Flore de Bourgogne (1782) où il décrit 1 300 espèces. Il était marié à Claudine née Tiran, dont il a eu un fils, Claude-Auguste Durande (1764-1835), médecin également à Dijon et qui sera plusieurs fois maire de la ville. Il était membre de l’Académie de Dijon.
 </t>
         </is>
